--- a/wyniki_BAT/srednie_bat_nowe_ rastrigin.bat .xlsx
+++ b/wyniki_BAT/srednie_bat_nowe_ rastrigin.bat .xlsx
@@ -145,25 +145,25 @@
         <v>20.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.01989980673036301</v>
+        <v>-0.2785982940463647</v>
       </c>
       <c r="E2" t="n">
-        <v>0.19899344289180868</v>
+        <v>-0.1790767623711315</v>
       </c>
       <c r="F2" t="n">
-        <v>3.6813426299666814</v>
+        <v>4.238518120779972</v>
       </c>
       <c r="G2" t="n">
-        <v>29.36155281653434</v>
+        <v>33.00453415414271</v>
       </c>
       <c r="H2" t="n">
-        <v>4.016454581522489</v>
+        <v>3.9174515734816695</v>
       </c>
       <c r="I2" t="n">
-        <v>57.12</v>
+        <v>61.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01359999999999502</v>
+        <v>0.016999999999999318</v>
       </c>
     </row>
     <row r="3">
@@ -177,25 +177,25 @@
         <v>40.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07959663414981141</v>
+        <v>-0.09949436432604675</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.039795613332283764</v>
+        <v>-0.2188807929464102</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0246732689333182</v>
+        <v>1.9501183260035393</v>
       </c>
       <c r="G3" t="n">
-        <v>14.017567379493839</v>
+        <v>8.988651242861154</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2289649367999824</v>
+        <v>2.3003304459706433</v>
       </c>
       <c r="I3" t="n">
-        <v>42.84</v>
+        <v>44.48</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02040000000000191</v>
+        <v>0.02220000000000027</v>
       </c>
     </row>
     <row r="4">
@@ -209,25 +209,25 @@
         <v>70.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.15919313966595833</v>
+        <v>2.7836873265529407E-6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03979615300673085</v>
+        <v>0.2387885907452136</v>
       </c>
       <c r="F4" t="n">
-        <v>1.6715303480570722</v>
+        <v>1.631732285121509</v>
       </c>
       <c r="G4" t="n">
-        <v>6.137638453820575</v>
+        <v>4.949710440643127</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8471226242800785</v>
+        <v>1.5276900631062362</v>
       </c>
       <c r="I4" t="n">
-        <v>37.96</v>
+        <v>40.86</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03460000000000037</v>
+        <v>0.03720000000000482</v>
       </c>
     </row>
     <row r="5">
@@ -241,25 +241,25 @@
         <v>100.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.019895682349193554</v>
+        <v>0.019902332514330923</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.11939712502153776</v>
+        <v>0.019905161156993107</v>
       </c>
       <c r="F5" t="n">
-        <v>1.333244406126302</v>
+        <v>1.3929421899851324</v>
       </c>
       <c r="G5" t="n">
-        <v>4.969501597904339</v>
+        <v>3.880573002656972</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8047445834994704</v>
+        <v>1.407083050946755</v>
       </c>
       <c r="I5" t="n">
-        <v>38.26</v>
+        <v>38.66</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05380000000000052</v>
+        <v>0.0596000000000015</v>
       </c>
     </row>
     <row r="6">
@@ -273,25 +273,25 @@
         <v>200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03979790468977782</v>
+        <v>-0.01990019839185063</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.07959630829692206</v>
+        <v>0.09949399861305414</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9949590196444583</v>
+        <v>0.9153622657766052</v>
       </c>
       <c r="G6" t="n">
-        <v>1.781897082046746</v>
+        <v>1.8214944456707816</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8989526963530918</v>
+        <v>1.0018382940431694</v>
       </c>
       <c r="I6" t="n">
-        <v>35.48</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.11560000000000059</v>
+        <v>0.13060000000000171</v>
       </c>
     </row>
   </sheetData>
